--- a/11-华为云/01-KPI异常检测/result.xlsx
+++ b/11-华为云/01-KPI异常检测/result.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>AUC</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -42,6 +42,10 @@
   </si>
   <si>
     <t>不使用weekday的统计特征</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跟上面的一样，只是将阈值设置成了0.5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -72,12 +76,18 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -97,11 +107,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -383,20 +391,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34" customWidth="1"/>
-    <col min="3" max="6" width="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34" style="2" customWidth="1"/>
+    <col min="3" max="6" width="9" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>4</v>
@@ -405,34 +414,34 @@
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A2" s="2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
         <v>44121</v>
       </c>
       <c r="B2" s="1"/>
-      <c r="C2" s="3">
+      <c r="C2" s="1">
         <v>0.97139500000000001</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="1">
+        <v>0.619999999999999</v>
+      </c>
+      <c r="E2" s="1">
         <v>0.81879000000000002</v>
       </c>
-      <c r="E2" s="3">
-        <v>0.619999999999999</v>
-      </c>
-      <c r="F2" s="3">
+      <c r="F2" s="1">
         <v>0.74250000000000005</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
         <v>5</v>
@@ -442,6 +451,158 @@
       <c r="E3" s="1"/>
       <c r="F3" s="1">
         <v>0.71052000000000004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1">
+        <v>0.97460000000000002</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.33</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.76073999999999997</v>
+      </c>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1">
+        <v>0.98593799999999998</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.32</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.80745</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.69460999999999995</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1">
+        <v>0.97910200000000003</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.66</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0.76622999999999997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.97910200000000003</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0.77986999999999995</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0.75770000000000004</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C11" s="1">
+        <v>0.97788600000000003</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0.82803000000000004</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0.72150999999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C12" s="1">
+        <v>0.96328800000000003</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.52</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0.71604999999999996</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0.69333</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C13" s="2">
+        <v>0.98782199999999998</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0.63</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0.77027000000000001</v>
+      </c>
+      <c r="F13" s="2">
+        <v>0.69460999999999995</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C14" s="2">
+        <v>0.98380800000000002</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0.77922000000000002</v>
+      </c>
+      <c r="F14" s="2">
+        <v>0.70269999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C15" s="2">
+        <v>0.97557099999999997</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0.43</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0.80262999999999995</v>
+      </c>
+      <c r="F15" s="2">
+        <v>0.68455999999999995</v>
       </c>
     </row>
   </sheetData>

--- a/11-华为云/01-KPI异常检测/result.xlsx
+++ b/11-华为云/01-KPI异常检测/result.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>AUC</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -46,6 +46,10 @@
   </si>
   <si>
     <t>跟上面的一样，只是将阈值设置成了0.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>count编码没用</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -102,7 +106,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -111,6 +115,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -391,10 +396,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
@@ -605,6 +610,14 @@
         <v>0.68455999999999995</v>
       </c>
     </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" s="4">
+        <v>44123</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/11-华为云/01-KPI异常检测/result.xlsx
+++ b/11-华为云/01-KPI异常检测/result.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>AUC</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -50,6 +50,10 @@
   </si>
   <si>
     <t>count编码没用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加入更多统计特征</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -396,9 +400,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
@@ -610,12 +614,29 @@
         <v>0.68455999999999995</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="4">
         <v>44123</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B18" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="2">
+        <v>0.97885900000000003</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="E18" s="2">
+        <v>0.83018999999999998</v>
+      </c>
+      <c r="F18" s="2">
+        <v>0.67090000000000005</v>
       </c>
     </row>
   </sheetData>

--- a/11-华为云/01-KPI异常检测/result.xlsx
+++ b/11-华为云/01-KPI异常检测/result.xlsx
@@ -400,10 +400,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="I14" sqref="I13:I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
@@ -639,6 +639,65 @@
         <v>0.67090000000000005</v>
       </c>
     </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20" s="4">
+        <v>44128</v>
+      </c>
+      <c r="C20" s="2">
+        <v>0.94101000000000001</v>
+      </c>
+      <c r="D20" s="2">
+        <v>0.92999999999999905</v>
+      </c>
+      <c r="E20" s="2">
+        <v>0.70813000000000004</v>
+      </c>
+      <c r="F20" s="2">
+        <v>0.53090000000000004</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C21" s="2">
+        <v>0.97154600000000002</v>
+      </c>
+      <c r="D21" s="2">
+        <v>0.92999999999999905</v>
+      </c>
+      <c r="E21" s="2">
+        <v>0.69230999999999998</v>
+      </c>
+      <c r="F21" s="2">
+        <v>0.62295</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C22" s="2">
+        <v>0.98004800000000003</v>
+      </c>
+      <c r="D22" s="2">
+        <v>0.26999999999999902</v>
+      </c>
+      <c r="E22" s="2">
+        <v>0.68235000000000001</v>
+      </c>
+      <c r="F22" s="2">
+        <v>0.63944999999999996</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C23" s="2">
+        <v>0.96318300000000001</v>
+      </c>
+      <c r="D23" s="2">
+        <v>0.39999999999999902</v>
+      </c>
+      <c r="E23" s="2">
+        <v>0.63158000000000003</v>
+      </c>
+      <c r="F23" s="2">
+        <v>0.75609000000000004</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/11-华为云/01-KPI异常检测/result.xlsx
+++ b/11-华为云/01-KPI异常检测/result.xlsx
@@ -400,10 +400,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I13:I14"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
@@ -698,6 +698,23 @@
         <v>0.75609000000000004</v>
       </c>
     </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A25" s="4">
+        <v>44130</v>
+      </c>
+      <c r="C25" s="2">
+        <v>0.91310899999999995</v>
+      </c>
+      <c r="D25" s="2">
+        <v>0.36</v>
+      </c>
+      <c r="E25" s="2">
+        <v>0.58823999999999999</v>
+      </c>
+      <c r="F25" s="2">
+        <v>0.59199000000000002</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/11-华为云/01-KPI异常检测/result.xlsx
+++ b/11-华为云/01-KPI异常检测/result.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>AUC</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -54,6 +54,14 @@
   </si>
   <si>
     <t>加入更多统计特征</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shift+统计特征</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只用shift</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -400,9 +408,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
@@ -715,6 +723,57 @@
         <v>0.59199000000000002</v>
       </c>
     </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A27" s="4">
+        <v>44132</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" s="2">
+        <v>0.96237499999999998</v>
+      </c>
+      <c r="D27" s="2">
+        <v>0.17999999999999899</v>
+      </c>
+      <c r="E27" s="2">
+        <v>0.70423000000000002</v>
+      </c>
+      <c r="F27" s="2">
+        <v>0.69798000000000004</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B28" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="2">
+        <v>0.946913</v>
+      </c>
+      <c r="D28" s="2">
+        <v>0.159999999999999</v>
+      </c>
+      <c r="E28" s="2">
+        <v>0.68493000000000004</v>
+      </c>
+      <c r="F28" s="2">
+        <v>0.65805999999999998</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C29" s="2">
+        <v>0.95561399999999996</v>
+      </c>
+      <c r="D29" s="2">
+        <v>0.12</v>
+      </c>
+      <c r="E29" s="2">
+        <v>0.70130000000000003</v>
+      </c>
+      <c r="F29" s="2">
+        <v>0.69735999999999998</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/11-华为云/01-KPI异常检测/result.xlsx
+++ b/11-华为云/01-KPI异常检测/result.xlsx
@@ -408,10 +408,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
@@ -774,6 +774,20 @@
         <v>0.69735999999999998</v>
       </c>
     </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C31" s="2">
+        <v>0.955349</v>
+      </c>
+      <c r="D31" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="E31" s="2">
+        <v>0.73238999999999999</v>
+      </c>
+      <c r="F31" s="2">
+        <v>0.70072000000000001</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/11-华为云/01-KPI异常检测/result.xlsx
+++ b/11-华为云/01-KPI异常检测/result.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>AUC</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -62,6 +62,14 @@
   </si>
   <si>
     <t>只用shift</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shift1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shift740</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -408,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
@@ -788,6 +796,64 @@
         <v>0.70072000000000001</v>
       </c>
     </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A33" s="4">
+        <v>44138</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D33" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="E33" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="F33" s="2">
+        <v>0.72857000000000005</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B34" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D34" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="E34" s="2">
+        <v>0.86419999999999997</v>
+      </c>
+      <c r="F34" s="2">
+        <v>0.71231999999999995</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D35" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="E35" s="2">
+        <v>0.82667000000000002</v>
+      </c>
+      <c r="F35" s="2">
+        <v>0.70343999999999995</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E36" s="2">
+        <v>0.76056000000000001</v>
+      </c>
+      <c r="F36" s="2">
+        <v>0.55881999999999998</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E37" s="2">
+        <v>0.85333000000000003</v>
+      </c>
+      <c r="F37" s="2">
+        <v>0.71830000000000005</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/11-华为云/01-KPI异常检测/result.xlsx
+++ b/11-华为云/01-KPI异常检测/result.xlsx
@@ -416,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F37"/>
+  <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
@@ -854,6 +854,14 @@
         <v>0.71830000000000005</v>
       </c>
     </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E39" s="2">
+        <v>0.83116999999999996</v>
+      </c>
+      <c r="F39" s="2">
+        <v>0.71230000000000004</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
